--- a/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171204-1209.xlsx
+++ b/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171204-1209.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/04.沟通汇报/2.汇报机制/2.周报/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\04.沟通汇报\2.汇报机制\2.周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,13 +75,6 @@
     <t>李阳</t>
     <rPh sb="0" eb="1">
       <t>li'yang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟</t>
-    <rPh sb="0" eb="1">
-      <t>yan'chi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,11 +99,260 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20171204-1209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宗类lake ，hub ，insight 层数据初始化和大宗类页面指标开发</t>
+    <t>郭海洋、满莉、朱超</t>
+    <rPh sb="0" eb="1">
+      <t>guo'hai'yang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>man'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu'chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周坤江、陆星</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'kun'jiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭海洋、陈力杰</t>
+    <rPh sb="0" eb="1">
+      <t>guo'hai'yang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chen'li'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据验证</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆岩、闫学飞、陈力杰、左青贝</t>
+    <rPh sb="0" eb="1">
+      <t>li'xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bing'run</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang'qing'yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan'xue'fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chen'li'jie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zuo'qing'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.权益类页面语句开发
+2.大宗性能优化</t>
+    <rPh sb="2" eb="3">
+      <t>quan'yi'lei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'shi'hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.大宗类页面修改
+2.权益类页面搭建及绑数</t>
+    <rPh sb="2" eb="3">
+      <t>da'zong'lei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bang'ding</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>quan'yi'lei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shu'ju'biao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shu'li</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ju'zhen</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>gou'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.工商信息接口对接
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <rPh sb="0" eb="1">
+      <t>yan'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工商信息接口对接
+2.微信推送开发</t>
+    <rPh sb="3" eb="4">
+      <t>gong'shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu'qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'tong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu'ju'tui'song</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>di'san'fang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>mei'ya</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>de</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jie'gou</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>jian'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171210-1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.大宗类页面性能优化
+2.权益类页面数据绑定</t>
+    <rPh sb="0" eb="1">
+      <t>da'zong'lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>quan'yi'lei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bang'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.抽取权益类数据，建表、权益类指标开发,JOB和转换工作
+2.大宗ETS跑数</t>
     <rPh sb="0" eb="1">
       <t>da'zong'lei</t>
     </rPh>
@@ -137,284 +379,6 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭海洋、满莉、朱超</t>
-    <rPh sb="0" eb="1">
-      <t>guo'hai'yang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>man'li</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhu'chao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宗类页面优化、权益类页面开发和数据绑定</t>
-    <rPh sb="0" eb="1">
-      <t>da'zong'lei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>you'hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>quan'yi'lei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>he</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bang'ding</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.报警事件的java开发
-2.短信端的集成开发
-3.工商舆情对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.美亚数据提供方数据尚未到位
-2.微信服务器外网域名尚未开通</t>
-    <rPh sb="2" eb="3">
-      <t>mei'ya</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ti'gong'fang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shang'wei</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dao'wei</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>wei'xin</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fu'wu'qi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wai'wang</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yu'ming</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>shang'wei</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>kai'tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周坤江、陆星</t>
-    <rPh sb="0" eb="1">
-      <t>zhou'kun'jiang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lu'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李秉润、张庆岩、闫学飞、陈力杰、左青贝</t>
-    <rPh sb="0" eb="1">
-      <t>li'xin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bing'run</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang'qing'yan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yan'xue'fei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>chen'li'jie</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zuo'qing'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.（工商、舆情数据接口已通，数据推送需要等待第三方数据公司的时间）
-2.根据美亚提供的数据结构系统建表</t>
-    <rPh sb="3" eb="4">
-      <t>gong'shang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yu'qing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yi'tong</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shu'ju'tui'song</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>di'san'fang</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>gong'si</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>de</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>mei'ya</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ti'gong</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>de</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>jie'gou</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>jian'biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.大宗类页面开发，数据绑定
-2.权益类页面数据表逻辑梳理、分析矩阵构建</t>
-    <rPh sb="2" eb="3">
-      <t>da'zong'lei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bang'ding</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>quan'yi'lei</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shu'ju'biao</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>luo'ji</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>shu'li</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>fen'xi</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ju'zhen</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>gou'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.权益类数据初始化，
-2.页面指标开发</t>
-    <rPh sb="2" eb="3">
-      <t>quan'yi'lei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chu'shi'hua</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭海洋、陈力杰</t>
-    <rPh sb="0" eb="1">
-      <t>guo'hai'yang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chen'li'jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据验证</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'zheng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,21 +781,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.875" style="4"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="43" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="9" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -860,27 +824,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -888,48 +852,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -952,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -960,13 +921,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
